--- a/biology/Zoologie/Hypolaïs_des_oliviers/Hypolaïs_des_oliviers.xlsx
+++ b/biology/Zoologie/Hypolaïs_des_oliviers/Hypolaïs_des_oliviers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_des_oliviers</t>
+          <t>Hypolaïs_des_oliviers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippolais olivetorum
 L'Hypolaïs des oliviers (Hippolais olivetorum) est une espèce d'oiseaux de la famille des Acrocephalidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_des_oliviers</t>
+          <t>Hypolaïs_des_oliviers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_des_oliviers</t>
+          <t>Hypolaïs_des_oliviers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce niche dans le centre et le Sud de l'Europe et hiverne en Afrique.
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_des_oliviers</t>
+          <t>Hypolaïs_des_oliviers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -566,12 +582,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Reproduction</t>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hippolais olivetorum a été décrite par l'ornithologue britannique Hugh Edwin Strickland en 1837.
+</t>
         </is>
       </c>
     </row>
@@ -581,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_des_oliviers</t>
+          <t>Hypolaïs_des_oliviers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,11 +620,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce Hippolais olivetorum a été décrite par l'ornithologue britannique Hugh Edwin Strickland en 1837.
-Synonymie
-Salicaria olivetorum Strickland, 1837 (protonyme)
-Taxinomie
-Selon le Congrès ornithologique international et Alan P. Peterson aucune sous-espèce n'est reconnue[1],[2].
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Salicaria olivetorum Strickland, 1837 (protonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypolaïs_des_oliviers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypola%C3%AFs_des_oliviers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Congrès ornithologique international et Alan P. Peterson aucune sous-espèce n'est reconnue,.
 </t>
         </is>
       </c>
